--- a/pr_DragutinStevic/bin/testData/TestData.xlsx
+++ b/pr_DragutinStevic/bin/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14070" windowHeight="4530" tabRatio="987" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14070" windowHeight="4530" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,10 +222,10 @@
     <t>2018-07-29</t>
   </si>
   <si>
-    <t>bac</t>
-  </si>
-  <si>
-    <t>2018-BAC</t>
+    <t>dst</t>
+  </si>
+  <si>
+    <t>2018-DST</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -774,9 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -900,9 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1037,9 +1033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>

--- a/pr_DragutinStevic/bin/testData/TestData.xlsx
+++ b/pr_DragutinStevic/bin/testData/TestData.xlsx
@@ -898,7 +898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
